--- a/data/trans_orig/Q23_1_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_1_2015-Habitat-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,36</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>16,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>17,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,71</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>16,62</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 17,08</t>
+          <t>15,98; 16,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 18,26</t>
+          <t>15,9; 16,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 18,64</t>
+          <t>17,28; 18,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 19,34</t>
+          <t>16,97; 17,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 17,38</t>
+          <t>16,6; 17,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,59; 18,28</t>
+          <t>16,37; 16,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,11</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,19</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,52</t>
+          <t>16,57</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,93</t>
+          <t>16,25; 16,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 16,39</t>
+          <t>16,03; 16,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 19,08</t>
+          <t>16,95; 17,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,65</t>
+          <t>16,88; 17,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,51</t>
+          <t>16,61; 17,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,77</t>
+          <t>16,24; 16,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,12</t>
+          <t>17,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>17,4</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,96</t>
+          <t>16,18; 16,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,81</t>
+          <t>16,75; 17,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,85</t>
+          <t>17,18; 18,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,47</t>
+          <t>17,26; 18,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,18</t>
+          <t>16,73; 17,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 16,96</t>
+          <t>17,09; 17,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>16,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,67</t>
+          <t>17,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,7</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>17,09</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,79</t>
+          <t>16,22; 16,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,76</t>
+          <t>16,37; 17,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 18,32</t>
+          <t>17,4; 18,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,21</t>
+          <t>17,23; 18,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,29</t>
+          <t>16,84; 17,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,79</t>
+          <t>16,84; 17,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,64</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 16,95</t>
+          <t>16,31; 16,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,33; 16,95</t>
+          <t>16,33; 16,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 18,38</t>
+          <t>17,43; 17,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,07</t>
+          <t>17,26; 17,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,45</t>
+          <t>16,82; 17,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,31</t>
+          <t>16,67; 17,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>16,49</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>16,64</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,67</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,98</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,31; 16,67</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,46; 16,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,43; 17,95</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,24; 17,66</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>16,82; 17,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>16,85; 17,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
